--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2636.518445076154</v>
+        <v>2740.578035775942</v>
       </c>
       <c r="AB2" t="n">
-        <v>3607.400851538098</v>
+        <v>3749.779774318697</v>
       </c>
       <c r="AC2" t="n">
-        <v>3263.115577286059</v>
+        <v>3391.906055506546</v>
       </c>
       <c r="AD2" t="n">
-        <v>2636518.445076155</v>
+        <v>2740578.035775942</v>
       </c>
       <c r="AE2" t="n">
-        <v>3607400.851538098</v>
+        <v>3749779.774318696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.006456665359711e-06</v>
+        <v>1.701464929346882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.13194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3263115.57728606</v>
+        <v>3391906.055506546</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>884.9260244864671</v>
+        <v>947.3275888593803</v>
       </c>
       <c r="AB3" t="n">
-        <v>1210.794826883268</v>
+        <v>1296.175400221013</v>
       </c>
       <c r="AC3" t="n">
-        <v>1095.23826796674</v>
+        <v>1172.470239217519</v>
       </c>
       <c r="AD3" t="n">
-        <v>884926.0244864671</v>
+        <v>947327.5888593803</v>
       </c>
       <c r="AE3" t="n">
-        <v>1210794.826883268</v>
+        <v>1296175.400221013</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.884389150087171e-06</v>
+        <v>3.185653354453352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1095238.26796674</v>
+        <v>1172470.239217519</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>669.4348485172745</v>
+        <v>711.0928748441488</v>
       </c>
       <c r="AB4" t="n">
-        <v>915.9502931224907</v>
+        <v>972.9486425653347</v>
       </c>
       <c r="AC4" t="n">
-        <v>828.5332826911899</v>
+        <v>880.0917896608947</v>
       </c>
       <c r="AD4" t="n">
-        <v>669434.8485172745</v>
+        <v>711092.8748441488</v>
       </c>
       <c r="AE4" t="n">
-        <v>915950.2931224908</v>
+        <v>972948.6425653347</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.210732614416737e-06</v>
+        <v>3.737353172825431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.165277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>828533.2826911899</v>
+        <v>880091.7896608948</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>565.9902459042485</v>
+        <v>607.5629313765512</v>
       </c>
       <c r="AB5" t="n">
-        <v>774.412824173568</v>
+        <v>831.2944064942143</v>
       </c>
       <c r="AC5" t="n">
-        <v>700.503951129667</v>
+        <v>751.9568350674331</v>
       </c>
       <c r="AD5" t="n">
-        <v>565990.2459042484</v>
+        <v>607562.9313765512</v>
       </c>
       <c r="AE5" t="n">
-        <v>774412.8241735679</v>
+        <v>831294.4064942143</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.387544540553274e-06</v>
+        <v>4.036262506695328e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.486111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>700503.951129667</v>
+        <v>751956.8350674331</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>519.9930430012722</v>
+        <v>561.5657284735749</v>
       </c>
       <c r="AB6" t="n">
-        <v>711.4774219083413</v>
+        <v>768.3590042289877</v>
       </c>
       <c r="AC6" t="n">
-        <v>643.5750153262418</v>
+        <v>695.0278992640078</v>
       </c>
       <c r="AD6" t="n">
-        <v>519993.0430012722</v>
+        <v>561565.728473575</v>
       </c>
       <c r="AE6" t="n">
-        <v>711477.4219083412</v>
+        <v>768359.0042289877</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.473616352781456e-06</v>
+        <v>4.181771175823413e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.191666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>643575.0153262417</v>
+        <v>695027.8992640078</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>518.7069922343139</v>
+        <v>560.2796777066167</v>
       </c>
       <c r="AB7" t="n">
-        <v>709.7177905124332</v>
+        <v>766.5993728330798</v>
       </c>
       <c r="AC7" t="n">
-        <v>641.9833206811012</v>
+        <v>693.4362046188672</v>
       </c>
       <c r="AD7" t="n">
-        <v>518706.992234314</v>
+        <v>560279.6777066167</v>
       </c>
       <c r="AE7" t="n">
-        <v>709717.7905124333</v>
+        <v>766599.3728330798</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.480181152019199e-06</v>
+        <v>4.192869294655216e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.169444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>641983.3206811012</v>
+        <v>693436.2046188673</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1583.437833408674</v>
+        <v>1664.162376159555</v>
       </c>
       <c r="AB2" t="n">
-        <v>2166.529500016744</v>
+        <v>2276.980380723981</v>
       </c>
       <c r="AC2" t="n">
-        <v>1959.758965278397</v>
+        <v>2059.668568949719</v>
       </c>
       <c r="AD2" t="n">
-        <v>1583437.833408674</v>
+        <v>1664162.376159555</v>
       </c>
       <c r="AE2" t="n">
-        <v>2166529.500016744</v>
+        <v>2276980.380723981</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325942697465975e-06</v>
+        <v>2.296255639909453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1959758.965278397</v>
+        <v>2059668.568949719</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.9296205159924</v>
+        <v>728.3824597352932</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.573214934028</v>
+        <v>996.6050153760508</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.0469291579072</v>
+        <v>901.4904314524839</v>
       </c>
       <c r="AD3" t="n">
-        <v>677929.6205159924</v>
+        <v>728382.4597352932</v>
       </c>
       <c r="AE3" t="n">
-        <v>927573.214934028</v>
+        <v>996605.0153760508</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.141640430200279e-06</v>
+        <v>3.708873638283069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.787500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>839046.9291579073</v>
+        <v>901490.4314524839</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>522.1109094610326</v>
+        <v>572.4784078257616</v>
       </c>
       <c r="AB4" t="n">
-        <v>714.3751802322594</v>
+        <v>783.2902135520847</v>
       </c>
       <c r="AC4" t="n">
-        <v>646.1962156627544</v>
+        <v>708.5340949253921</v>
       </c>
       <c r="AD4" t="n">
-        <v>522110.9094610326</v>
+        <v>572478.4078257616</v>
       </c>
       <c r="AE4" t="n">
-        <v>714375.1802322593</v>
+        <v>783290.2135520846</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439698343641583e-06</v>
+        <v>4.225047652489894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.591666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>646196.2156627544</v>
+        <v>708534.0949253921</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>482.6366686810445</v>
+        <v>522.9136887104645</v>
       </c>
       <c r="AB5" t="n">
-        <v>660.3647825164841</v>
+        <v>715.473578217453</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.3404945009034</v>
+        <v>647.1897840858525</v>
       </c>
       <c r="AD5" t="n">
-        <v>482636.6686810445</v>
+        <v>522913.6887104645</v>
       </c>
       <c r="AE5" t="n">
-        <v>660364.782516484</v>
+        <v>715473.578217453</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.526927444385418e-06</v>
+        <v>4.376110224748904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.294444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>597340.4945009034</v>
+        <v>647189.7840858524</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.6936451723008</v>
+        <v>524.9706652017206</v>
       </c>
       <c r="AB6" t="n">
-        <v>663.1792284992191</v>
+        <v>718.288024200188</v>
       </c>
       <c r="AC6" t="n">
-        <v>599.8863337091459</v>
+        <v>649.7356232940949</v>
       </c>
       <c r="AD6" t="n">
-        <v>484693.6451723008</v>
+        <v>524970.6652017207</v>
       </c>
       <c r="AE6" t="n">
-        <v>663179.2284992191</v>
+        <v>718288.024200188</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.526625613586997e-06</v>
+        <v>4.375587516886416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.295833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>599886.3337091459</v>
+        <v>649735.6232940949</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.1422610224669</v>
+        <v>523.7190890860437</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.2153356787462</v>
+        <v>716.5755625430776</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.7779422385563</v>
+        <v>648.186596574084</v>
       </c>
       <c r="AD2" t="n">
-        <v>478142.2610224669</v>
+        <v>523719.0890860438</v>
       </c>
       <c r="AE2" t="n">
-        <v>654215.3356787462</v>
+        <v>716575.5625430776</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377970758913423e-06</v>
+        <v>4.499632390724894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.83611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>591777.9422385563</v>
+        <v>648186.596574084</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.497021166885</v>
+        <v>460.9585731262976</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.8155518473873</v>
+        <v>630.7038558084007</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.3833307588186</v>
+        <v>570.5103650084674</v>
       </c>
       <c r="AD3" t="n">
-        <v>424497.021166885</v>
+        <v>460958.5731262976</v>
       </c>
       <c r="AE3" t="n">
-        <v>580815.5518473872</v>
+        <v>630703.8558084007</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.541655170616833e-06</v>
+        <v>4.809358520870394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.202777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>525383.3307588187</v>
+        <v>570510.3650084673</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.5756399773304</v>
+        <v>810.5554246511654</v>
       </c>
       <c r="AB2" t="n">
-        <v>1031.075436027877</v>
+        <v>1109.037691189304</v>
       </c>
       <c r="AC2" t="n">
-        <v>932.6710435368389</v>
+        <v>1003.192690486372</v>
       </c>
       <c r="AD2" t="n">
-        <v>753575.6399773305</v>
+        <v>810555.4246511654</v>
       </c>
       <c r="AE2" t="n">
-        <v>1031075.436027877</v>
+        <v>1109037.691189304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944668930484976e-06</v>
+        <v>3.542764458296332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.50555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>932671.0435368388</v>
+        <v>1003192.690486372</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.5617152602865</v>
+        <v>484.9595283005772</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.6912426796042</v>
+        <v>663.5430215252627</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.5529907466985</v>
+        <v>600.2154068393708</v>
       </c>
       <c r="AD3" t="n">
-        <v>437561.7152602865</v>
+        <v>484959.5283005773</v>
       </c>
       <c r="AE3" t="n">
-        <v>598691.2426796042</v>
+        <v>663543.0215252627</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.558308559034166e-06</v>
+        <v>4.660682594461582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.745833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>541552.9907466985</v>
+        <v>600215.4068393707</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.1159225371947</v>
+        <v>482.5137355774854</v>
       </c>
       <c r="AB4" t="n">
-        <v>595.3448011751103</v>
+        <v>660.1965800207687</v>
       </c>
       <c r="AC4" t="n">
-        <v>538.5259289226333</v>
+        <v>597.1883450153055</v>
       </c>
       <c r="AD4" t="n">
-        <v>435115.9225371947</v>
+        <v>482513.7355774853</v>
       </c>
       <c r="AE4" t="n">
-        <v>595344.8011751103</v>
+        <v>660196.5800207687</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.571196763361794e-06</v>
+        <v>4.68416210375358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.702777777777776</v>
       </c>
       <c r="AH4" t="n">
-        <v>538525.9289226333</v>
+        <v>597188.3450153054</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.4487078865632</v>
+        <v>459.4619577218998</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.435250433842</v>
+        <v>628.656120586092</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.1845879363201</v>
+        <v>568.6580627617615</v>
       </c>
       <c r="AD2" t="n">
-        <v>415448.7078865632</v>
+        <v>459461.9577218998</v>
       </c>
       <c r="AE2" t="n">
-        <v>568435.2504338421</v>
+        <v>628656.120586092</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.459228892197847e-06</v>
+        <v>4.819296264008607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.877777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>514184.5879363201</v>
+        <v>568658.0627617615</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.3280217553184</v>
+        <v>462.3412715906551</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.3748546954357</v>
+        <v>632.5957248476858</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.7482018964566</v>
+        <v>572.2216767218979</v>
       </c>
       <c r="AD3" t="n">
-        <v>418328.0217553184</v>
+        <v>462341.2715906551</v>
       </c>
       <c r="AE3" t="n">
-        <v>572374.8546954357</v>
+        <v>632595.7248476858</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4622021438277e-06</v>
+        <v>4.825122879220054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.865277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>517748.2018964566</v>
+        <v>572221.6767218979</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1787.258779677052</v>
+        <v>1878.754797232624</v>
       </c>
       <c r="AB2" t="n">
-        <v>2445.406310646667</v>
+        <v>2570.595198385614</v>
       </c>
       <c r="AC2" t="n">
-        <v>2212.020164507862</v>
+        <v>2325.261200504711</v>
       </c>
       <c r="AD2" t="n">
-        <v>1787258.779677052</v>
+        <v>1878754.797232624</v>
       </c>
       <c r="AE2" t="n">
-        <v>2445406.310646668</v>
+        <v>2570595.198385614</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.242392735323736e-06</v>
+        <v>2.137513353197251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.71944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2212020.164507862</v>
+        <v>2325261.200504711</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>735.277808231568</v>
+        <v>786.0710893356278</v>
       </c>
       <c r="AB3" t="n">
-        <v>1006.03953538996</v>
+        <v>1075.537143437946</v>
       </c>
       <c r="AC3" t="n">
-        <v>910.0245341176976</v>
+        <v>972.8893879940896</v>
       </c>
       <c r="AD3" t="n">
-        <v>735277.808231568</v>
+        <v>786071.0893356277</v>
       </c>
       <c r="AE3" t="n">
-        <v>1006039.53538996</v>
+        <v>1075537.143437946</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.072598835453995e-06</v>
+        <v>3.56586734664831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.02222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>910024.5341176976</v>
+        <v>972889.3879940896</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.4960571604598</v>
+        <v>606.2892487559686</v>
       </c>
       <c r="AB4" t="n">
-        <v>760.0542121633836</v>
+        <v>829.5516977418216</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.515704897296</v>
+        <v>750.3804479924617</v>
       </c>
       <c r="AD4" t="n">
-        <v>555496.0571604598</v>
+        <v>606289.2487559686</v>
       </c>
       <c r="AE4" t="n">
-        <v>760054.2121633836</v>
+        <v>829551.6977418216</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.379046736582963e-06</v>
+        <v>4.093105201553951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.730555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>687515.704897296</v>
+        <v>750380.4479924616</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>494.8140874855462</v>
+        <v>535.43166209959</v>
       </c>
       <c r="AB5" t="n">
-        <v>677.0264641546053</v>
+        <v>732.6012216624646</v>
       </c>
       <c r="AC5" t="n">
-        <v>612.4120086282992</v>
+        <v>662.6827892792705</v>
       </c>
       <c r="AD5" t="n">
-        <v>494814.0874855462</v>
+        <v>535431.6620995899</v>
       </c>
       <c r="AE5" t="n">
-        <v>677026.4641546053</v>
+        <v>732601.2216624646</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.508116789620689e-06</v>
+        <v>4.315167802229193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.281944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>612412.0086282992</v>
+        <v>662682.7892792706</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.7655010430088</v>
+        <v>532.3830756570525</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.8552536897836</v>
+        <v>728.4300111976429</v>
       </c>
       <c r="AC6" t="n">
-        <v>608.6388926359098</v>
+        <v>658.909673286881</v>
       </c>
       <c r="AD6" t="n">
-        <v>491765.5010430088</v>
+        <v>532383.0756570525</v>
       </c>
       <c r="AE6" t="n">
-        <v>672855.2536897836</v>
+        <v>728430.0111976429</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.515295656997063e-06</v>
+        <v>4.327518908639867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.258333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>608638.8926359097</v>
+        <v>658909.6732868809</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.0431699192294</v>
+        <v>467.0452959878152</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.1945725478408</v>
+        <v>639.0319785547902</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.8216168520711</v>
+        <v>578.0436634085351</v>
       </c>
       <c r="AD2" t="n">
-        <v>424043.1699192294</v>
+        <v>467045.2959878152</v>
       </c>
       <c r="AE2" t="n">
-        <v>580194.5725478409</v>
+        <v>639031.9785547901</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376046667320841e-06</v>
+        <v>4.763166606945139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>524821.6168520711</v>
+        <v>578043.6634085351</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1103.062026061159</v>
+        <v>1171.591196070771</v>
       </c>
       <c r="AB2" t="n">
-        <v>1509.258127718959</v>
+        <v>1603.022761419718</v>
       </c>
       <c r="AC2" t="n">
-        <v>1365.216650266547</v>
+        <v>1450.032518926396</v>
       </c>
       <c r="AD2" t="n">
-        <v>1103062.026061159</v>
+        <v>1171591.196070771</v>
       </c>
       <c r="AE2" t="n">
-        <v>1509258.127718959</v>
+        <v>1603022.761419718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607451750305184e-06</v>
+        <v>2.84691649454674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.43472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1365216.650266547</v>
+        <v>1450032.518926396</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.2196726189751</v>
+        <v>583.4767691047858</v>
       </c>
       <c r="AB3" t="n">
-        <v>744.6253653547486</v>
+        <v>798.3386566675005</v>
       </c>
       <c r="AC3" t="n">
-        <v>673.5593655735547</v>
+        <v>722.1463357504955</v>
       </c>
       <c r="AD3" t="n">
-        <v>544219.672618975</v>
+        <v>583476.7691047859</v>
       </c>
       <c r="AE3" t="n">
-        <v>744625.3653547487</v>
+        <v>798338.6566675005</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.370439343528974e-06</v>
+        <v>4.198224217388764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.109722222222224</v>
       </c>
       <c r="AH3" t="n">
-        <v>673559.3655735548</v>
+        <v>722146.3357504955</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.4379202288634</v>
+        <v>496.6096758601026</v>
       </c>
       <c r="AB4" t="n">
-        <v>625.8867431938872</v>
+        <v>679.4832673844415</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.1529908610232</v>
+        <v>614.6343380060251</v>
       </c>
       <c r="AD4" t="n">
-        <v>457437.9202288634</v>
+        <v>496609.6758601026</v>
       </c>
       <c r="AE4" t="n">
-        <v>625886.7431938873</v>
+        <v>679483.2673844416</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.55407259145995e-06</v>
+        <v>4.523452344691889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.455555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>566152.9908610232</v>
+        <v>614634.3380060252</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.3885705610463</v>
+        <v>498.5603261922854</v>
       </c>
       <c r="AB5" t="n">
-        <v>628.555709034999</v>
+        <v>682.1522332255533</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.5672343481763</v>
+        <v>617.0485814931782</v>
       </c>
       <c r="AD5" t="n">
-        <v>459388.5705610462</v>
+        <v>498560.3261922854</v>
       </c>
       <c r="AE5" t="n">
-        <v>628555.709034999</v>
+        <v>682152.2332255533</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555005529214044e-06</v>
+        <v>4.525104646778102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.452777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>568567.2343481763</v>
+        <v>617048.5814931781</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1399.052435122694</v>
+        <v>1478.984627818728</v>
       </c>
       <c r="AB2" t="n">
-        <v>1914.2452635722</v>
+        <v>2023.612015978376</v>
       </c>
       <c r="AC2" t="n">
-        <v>1731.552382276969</v>
+        <v>1830.481325330702</v>
       </c>
       <c r="AD2" t="n">
-        <v>1399052.435122694</v>
+        <v>1478984.627818728</v>
       </c>
       <c r="AE2" t="n">
-        <v>1914245.2635722</v>
+        <v>2023612.015978376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415777910287473e-06</v>
+        <v>2.46899305094068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1731552.382276969</v>
+        <v>1830481.325330702</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.4443277748027</v>
+        <v>683.4552862439309</v>
       </c>
       <c r="AB3" t="n">
-        <v>866.7064748529265</v>
+        <v>935.1336745581605</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.9892253231399</v>
+        <v>845.8858291266843</v>
       </c>
       <c r="AD3" t="n">
-        <v>633444.3277748027</v>
+        <v>683455.2862439309</v>
       </c>
       <c r="AE3" t="n">
-        <v>866706.4748529264</v>
+        <v>935133.6745581605</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.213019468937462e-06</v>
+        <v>3.859312714727677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.561111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>783989.2253231398</v>
+        <v>845885.8291266842</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>491.2342175380967</v>
+        <v>531.1577329673787</v>
       </c>
       <c r="AB4" t="n">
-        <v>672.128328159789</v>
+        <v>726.753443271327</v>
       </c>
       <c r="AC4" t="n">
-        <v>607.9813438582512</v>
+        <v>657.3931146503746</v>
       </c>
       <c r="AD4" t="n">
-        <v>491234.2175380967</v>
+        <v>531157.7329673787</v>
       </c>
       <c r="AE4" t="n">
-        <v>672128.328159789</v>
+        <v>726753.4432713269</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.494712501986159e-06</v>
+        <v>4.350560767153085e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.481944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>607981.3438582512</v>
+        <v>657393.1146503746</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.6535878414208</v>
+        <v>513.5771032707028</v>
       </c>
       <c r="AB5" t="n">
-        <v>648.0737350061542</v>
+        <v>702.6988501176921</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.2224873143658</v>
+        <v>635.6342581064893</v>
       </c>
       <c r="AD5" t="n">
-        <v>473653.5878414208</v>
+        <v>513577.1032707028</v>
       </c>
       <c r="AE5" t="n">
-        <v>648073.7350061542</v>
+        <v>702698.8501176921</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.537827227974683e-06</v>
+        <v>4.425749084533502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.337499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>586222.4873143658</v>
+        <v>635634.2581064892</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>475.7297074378536</v>
+        <v>515.6532228671356</v>
       </c>
       <c r="AB6" t="n">
-        <v>650.9143734299257</v>
+        <v>705.5394885414637</v>
       </c>
       <c r="AC6" t="n">
-        <v>588.7920191938337</v>
+        <v>638.2037899859571</v>
       </c>
       <c r="AD6" t="n">
-        <v>475729.7074378536</v>
+        <v>515653.2228671355</v>
       </c>
       <c r="AE6" t="n">
-        <v>650914.3734299258</v>
+        <v>705539.4885414637</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538131925684849e-06</v>
+        <v>4.42628045073407e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.336111111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>588792.0191938337</v>
+        <v>638203.7899859571</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2298.178055802459</v>
+        <v>2401.466968186381</v>
       </c>
       <c r="AB2" t="n">
-        <v>3144.468604409288</v>
+        <v>3285.79305111819</v>
       </c>
       <c r="AC2" t="n">
-        <v>2844.36493409375</v>
+        <v>2972.201573958858</v>
       </c>
       <c r="AD2" t="n">
-        <v>2298178.055802459</v>
+        <v>2401466.968186381</v>
       </c>
       <c r="AE2" t="n">
-        <v>3144468.604409288</v>
+        <v>3285793.05111819</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083174961586825e-06</v>
+        <v>1.84132564578358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.85555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>2844364.934093751</v>
+        <v>2972201.573958858</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>832.6412801892328</v>
+        <v>884.243155462459</v>
       </c>
       <c r="AB3" t="n">
-        <v>1139.256533095668</v>
+        <v>1209.860495358564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1030.527488533603</v>
+        <v>1094.393107731412</v>
       </c>
       <c r="AD3" t="n">
-        <v>832641.2801892328</v>
+        <v>884243.155462459</v>
       </c>
       <c r="AE3" t="n">
-        <v>1139256.533095668</v>
+        <v>1209860.495358564</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.945185771364447e-06</v>
+        <v>3.306686891450611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.49861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1030527.488533603</v>
+        <v>1094393.107731412</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>636.2477009466475</v>
+        <v>677.597491750596</v>
       </c>
       <c r="AB4" t="n">
-        <v>870.5421737027401</v>
+        <v>927.1187817047255</v>
       </c>
       <c r="AC4" t="n">
-        <v>787.4588504581644</v>
+        <v>838.6358663982083</v>
       </c>
       <c r="AD4" t="n">
-        <v>636247.7009466474</v>
+        <v>677597.491750596</v>
       </c>
       <c r="AE4" t="n">
-        <v>870542.1737027401</v>
+        <v>927118.7817047255</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.261785783894509e-06</v>
+        <v>3.844885929649368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.030555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>787458.8504581645</v>
+        <v>838635.8663982083</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>532.2068396344056</v>
+        <v>573.4712895837824</v>
       </c>
       <c r="AB5" t="n">
-        <v>728.1888772964728</v>
+        <v>784.6487181762604</v>
       </c>
       <c r="AC5" t="n">
-        <v>658.6915528668048</v>
+        <v>709.76294577491</v>
       </c>
       <c r="AD5" t="n">
-        <v>532206.8396344056</v>
+        <v>573471.2895837824</v>
       </c>
       <c r="AE5" t="n">
-        <v>728188.8772964728</v>
+        <v>784648.7181762605</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.439569999012412e-06</v>
+        <v>4.147107312455824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.372222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>658691.5528668049</v>
+        <v>709762.94577491</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.9799422187683</v>
+        <v>550.2443921681452</v>
       </c>
       <c r="AB6" t="n">
-        <v>696.4088115540034</v>
+        <v>752.868652433791</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.9445319951944</v>
+        <v>681.0159249032994</v>
       </c>
       <c r="AD6" t="n">
-        <v>508979.9422187682</v>
+        <v>550244.3921681452</v>
       </c>
       <c r="AE6" t="n">
-        <v>696408.8115540034</v>
+        <v>752868.652433791</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.489567214182045e-06</v>
+        <v>4.232099264609831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.204166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>629944.5319951944</v>
+        <v>681015.9249032994</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>511.0822567423197</v>
+        <v>552.3467066916967</v>
       </c>
       <c r="AB7" t="n">
-        <v>699.2852910326975</v>
+        <v>755.7451319124851</v>
       </c>
       <c r="AC7" t="n">
-        <v>632.5464843096063</v>
+        <v>683.6178772177113</v>
       </c>
       <c r="AD7" t="n">
-        <v>511082.2567423197</v>
+        <v>552346.7066916967</v>
       </c>
       <c r="AE7" t="n">
-        <v>699285.2910326975</v>
+        <v>755745.1319124851</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.488831961017786e-06</v>
+        <v>4.230849382960507e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.206944444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>632546.4843096063</v>
+        <v>683617.8772177113</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>862.3440784512358</v>
+        <v>919.9077052721392</v>
       </c>
       <c r="AB2" t="n">
-        <v>1179.897212072716</v>
+        <v>1258.658305817061</v>
       </c>
       <c r="AC2" t="n">
-        <v>1067.289478148633</v>
+        <v>1138.533723647907</v>
       </c>
       <c r="AD2" t="n">
-        <v>862344.0784512358</v>
+        <v>919907.7052721392</v>
       </c>
       <c r="AE2" t="n">
-        <v>1179897.212072716</v>
+        <v>1258658.305817061</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.824719755907128e-06</v>
+        <v>3.290401521478608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.10972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1067289.478148633</v>
+        <v>1138533.723647907</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.4691820592224</v>
+        <v>505.4245730104207</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.9295170093591</v>
+        <v>691.5441985513228</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.1916824035796</v>
+        <v>625.5441908299625</v>
       </c>
       <c r="AD3" t="n">
-        <v>457469.1820592224</v>
+        <v>505424.5730104207</v>
       </c>
       <c r="AE3" t="n">
-        <v>625929.5170093591</v>
+        <v>691544.1985513228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.523108572684136e-06</v>
+        <v>4.549761824816977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>566191.6824035797</v>
+        <v>625544.1908299625</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.9405577562415</v>
+        <v>489.8959487074399</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.6825681634666</v>
+        <v>670.2972497054304</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.9725125352593</v>
+        <v>606.3250209616421</v>
       </c>
       <c r="AD4" t="n">
-        <v>441940.5577562415</v>
+        <v>489895.9487074399</v>
       </c>
       <c r="AE4" t="n">
-        <v>604682.5681634666</v>
+        <v>670297.2497054305</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.568607251863686e-06</v>
+        <v>4.631806710182529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.601388888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>546972.5125352592</v>
+        <v>606325.020961642</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.1613785064362</v>
+        <v>611.3347296577969</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.2787312328325</v>
+        <v>836.4551473026108</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.478094427486</v>
+        <v>756.6250420162216</v>
       </c>
       <c r="AD2" t="n">
-        <v>565161.3785064362</v>
+        <v>611334.7296577969</v>
       </c>
       <c r="AE2" t="n">
-        <v>773278.7312328324</v>
+        <v>836455.1473026108</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.224063430340358e-06</v>
+        <v>4.149391455290993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.34861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>699478.094427486</v>
+        <v>756625.0420162217</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.4055373428216</v>
+        <v>465.5787989856311</v>
       </c>
       <c r="AB3" t="n">
-        <v>573.8491590588902</v>
+        <v>637.0254526591203</v>
       </c>
       <c r="AC3" t="n">
-        <v>519.0818007206622</v>
+        <v>576.2286375281711</v>
       </c>
       <c r="AD3" t="n">
-        <v>419405.5373428215</v>
+        <v>465578.7989856311</v>
       </c>
       <c r="AE3" t="n">
-        <v>573849.1590588902</v>
+        <v>637025.4526591203</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.561128106393728e-06</v>
+        <v>4.778246400530683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.986111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>519081.8007206621</v>
+        <v>576228.6375281712</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.9130332563757</v>
+        <v>473.7471464888392</v>
       </c>
       <c r="AB2" t="n">
-        <v>586.8577344089321</v>
+        <v>648.2017460750683</v>
       </c>
       <c r="AC2" t="n">
-        <v>530.8488558969461</v>
+        <v>586.3382811865274</v>
       </c>
       <c r="AD2" t="n">
-        <v>428913.0332563758</v>
+        <v>473747.1464888392</v>
       </c>
       <c r="AE2" t="n">
-        <v>586857.734408932</v>
+        <v>648201.7460750683</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.474515890859381e-06</v>
+        <v>4.758585822099272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.620833333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>530848.8558969462</v>
+        <v>586338.2811865275</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.4821431141024</v>
+        <v>465.1456641459737</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.3222185716511</v>
+        <v>636.4328184629404</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.4142735009772</v>
+        <v>575.6925635079074</v>
       </c>
       <c r="AD3" t="n">
-        <v>420482.1431141024</v>
+        <v>465145.6641459737</v>
       </c>
       <c r="AE3" t="n">
-        <v>575322.2185716511</v>
+        <v>636432.8184629404</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510515082898208e-06</v>
+        <v>4.827813603369854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.483333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>520414.2735009771</v>
+        <v>575692.5635079073</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.7339366100175</v>
+        <v>491.9757449100411</v>
       </c>
       <c r="AB2" t="n">
-        <v>604.3998599957213</v>
+        <v>673.1429186239623</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.7167856382601</v>
+        <v>608.8991032325105</v>
       </c>
       <c r="AD2" t="n">
-        <v>441733.9366100175</v>
+        <v>491975.7449100411</v>
       </c>
       <c r="AE2" t="n">
-        <v>604399.8599957213</v>
+        <v>673142.9186239622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.222243566734701e-06</v>
+        <v>4.583598072649715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.49861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>546716.7856382602</v>
+        <v>608899.1032325105</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1247.803255104332</v>
+        <v>1317.089585549624</v>
       </c>
       <c r="AB2" t="n">
-        <v>1707.299462828186</v>
+        <v>1802.100076840601</v>
       </c>
       <c r="AC2" t="n">
-        <v>1544.357198305709</v>
+        <v>1630.110174770277</v>
       </c>
       <c r="AD2" t="n">
-        <v>1247803.255104332</v>
+        <v>1317089.585549623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1707299.462828186</v>
+        <v>1802100.076840601</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50884662023576e-06</v>
+        <v>2.650983991111148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1544357.198305709</v>
+        <v>1630110.174770277</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.0684525703205</v>
+        <v>637.4489902206652</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.6212005558228</v>
+        <v>872.1858306845937</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.829282467722</v>
+        <v>788.9456391245568</v>
       </c>
       <c r="AD3" t="n">
-        <v>588068.4525703205</v>
+        <v>637448.9902206652</v>
       </c>
       <c r="AE3" t="n">
-        <v>804621.2005558228</v>
+        <v>872185.8306845938</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290197133957684e-06</v>
+        <v>4.023786021180739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.330555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>727829.282467722</v>
+        <v>788945.6391245568</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.3958952899321</v>
+        <v>509.9515478246611</v>
       </c>
       <c r="AB4" t="n">
-        <v>643.6164163379551</v>
+        <v>697.7382052082</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.1905688839738</v>
+        <v>631.1470501848504</v>
       </c>
       <c r="AD4" t="n">
-        <v>470395.8952899321</v>
+        <v>509951.5478246611</v>
       </c>
       <c r="AE4" t="n">
-        <v>643616.4163379552</v>
+        <v>697738.2052082</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.532849705863843e-06</v>
+        <v>4.450117017915624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>582190.5688839738</v>
+        <v>631147.0501848503</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.292764849921</v>
+        <v>505.8484173846498</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.0023322525924</v>
+        <v>692.1241211228373</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.1122851043016</v>
+        <v>626.0687664051782</v>
       </c>
       <c r="AD5" t="n">
-        <v>466292.764849921</v>
+        <v>505848.4173846499</v>
       </c>
       <c r="AE5" t="n">
-        <v>638002.3322525924</v>
+        <v>692124.1211228373</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.546390242533305e-06</v>
+        <v>4.473907206699816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.391666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>577112.2851043015</v>
+        <v>626068.7664051781</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2029.316168351235</v>
+        <v>2121.637329302976</v>
       </c>
       <c r="AB2" t="n">
-        <v>2776.599908649001</v>
+        <v>2902.917793985341</v>
       </c>
       <c r="AC2" t="n">
-        <v>2511.605110349987</v>
+        <v>2625.867393998092</v>
       </c>
       <c r="AD2" t="n">
-        <v>2029316.168351235</v>
+        <v>2121637.329302975</v>
       </c>
       <c r="AE2" t="n">
-        <v>2776599.908649001</v>
+        <v>2902917.793985341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159649178039943e-06</v>
+        <v>1.982870860365937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.75972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2511605.110349987</v>
+        <v>2625867.393998092</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>784.0318194467471</v>
+        <v>835.2361019628046</v>
       </c>
       <c r="AB3" t="n">
-        <v>1072.746924409742</v>
+        <v>1142.806882721726</v>
       </c>
       <c r="AC3" t="n">
-        <v>970.3654635538402</v>
+        <v>1033.738997774297</v>
       </c>
       <c r="AD3" t="n">
-        <v>784031.8194467472</v>
+        <v>835236.1019628046</v>
       </c>
       <c r="AE3" t="n">
-        <v>1072746.924409742</v>
+        <v>1142806.882721726</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.006440695209885e-06</v>
+        <v>3.430789986251356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.26388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>970365.4635538402</v>
+        <v>1033738.997774297</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>588.2832432166266</v>
+        <v>639.4874362241327</v>
       </c>
       <c r="AB4" t="n">
-        <v>804.9150865939932</v>
+        <v>874.9749224364288</v>
       </c>
       <c r="AC4" t="n">
-        <v>728.0951204348812</v>
+        <v>791.4685438741116</v>
       </c>
       <c r="AD4" t="n">
-        <v>588283.2432166266</v>
+        <v>639487.4362241327</v>
       </c>
       <c r="AE4" t="n">
-        <v>804915.0865939932</v>
+        <v>874974.9224364287</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.323301747948839e-06</v>
+        <v>3.972587074680202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.863888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>728095.1204348812</v>
+        <v>791468.5438741116</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.530513112</v>
+        <v>553.4768888556417</v>
       </c>
       <c r="AB5" t="n">
-        <v>701.2668592902559</v>
+        <v>757.2914970093129</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.3389344738117</v>
+        <v>685.0166594000349</v>
       </c>
       <c r="AD5" t="n">
-        <v>512530.513112</v>
+        <v>553476.8888556417</v>
       </c>
       <c r="AE5" t="n">
-        <v>701266.8592902558</v>
+        <v>757291.497009313</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.476765102925356e-06</v>
+        <v>4.234992309366144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.315277777777776</v>
       </c>
       <c r="AH5" t="n">
-        <v>634338.9344738118</v>
+        <v>685016.6594000349</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>498.8357043282315</v>
+        <v>539.7820800718731</v>
       </c>
       <c r="AB6" t="n">
-        <v>682.5290177399805</v>
+        <v>738.5536554590376</v>
       </c>
       <c r="AC6" t="n">
-        <v>617.3894062223688</v>
+        <v>668.0671311485921</v>
       </c>
       <c r="AD6" t="n">
-        <v>498835.7043282315</v>
+        <v>539782.0800718731</v>
       </c>
       <c r="AE6" t="n">
-        <v>682529.0177399805</v>
+        <v>738553.6554590376</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505530214872645e-06</v>
+        <v>4.284177445143026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.219444444444443</v>
       </c>
       <c r="AH6" t="n">
-        <v>617389.4062223688</v>
+        <v>668067.1311485921</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>501.0084588661213</v>
+        <v>541.954834609763</v>
       </c>
       <c r="AB7" t="n">
-        <v>685.5018763538866</v>
+        <v>741.5265140729435</v>
       </c>
       <c r="AC7" t="n">
-        <v>620.0785393825969</v>
+        <v>670.7562643088201</v>
       </c>
       <c r="AD7" t="n">
-        <v>501008.4588661213</v>
+        <v>541954.834609763</v>
       </c>
       <c r="AE7" t="n">
-        <v>685501.8763538866</v>
+        <v>741526.5140729436</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.505381941099721e-06</v>
+        <v>4.283923913515309e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.219444444444443</v>
       </c>
       <c r="AH7" t="n">
-        <v>620078.5393825968</v>
+        <v>670756.26430882</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.0215813391449</v>
+        <v>539.9870806063757</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.8914369964452</v>
+        <v>738.8341462343294</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.8168858164612</v>
+        <v>668.3208522779613</v>
       </c>
       <c r="AD2" t="n">
-        <v>483021.5813391449</v>
+        <v>539987.0806063757</v>
       </c>
       <c r="AE2" t="n">
-        <v>660891.4369964453</v>
+        <v>738834.1462343294</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.932856972014236e-06</v>
+        <v>4.143002746511106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>597816.8858164612</v>
+        <v>668320.8522779613</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.779421844761</v>
+        <v>706.9635448406657</v>
       </c>
       <c r="AB2" t="n">
-        <v>890.4251153298189</v>
+        <v>967.2987110813866</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.4441920422387</v>
+        <v>874.9810797080461</v>
       </c>
       <c r="AD2" t="n">
-        <v>650779.421844761</v>
+        <v>706963.5448406657</v>
       </c>
       <c r="AE2" t="n">
-        <v>890425.1153298189</v>
+        <v>967298.7110813867</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079295648765375e-06</v>
+        <v>3.830961953385562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>805444.1920422387</v>
+        <v>874981.079708046</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.2865488338241</v>
+        <v>474.0924278546495</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.6323066665684</v>
+        <v>648.6741752725086</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.8358198549063</v>
+        <v>586.7656224044226</v>
       </c>
       <c r="AD3" t="n">
-        <v>427286.5488338241</v>
+        <v>474092.4278546495</v>
       </c>
       <c r="AE3" t="n">
-        <v>584632.3066665684</v>
+        <v>648674.1752725086</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.566582086833063e-06</v>
+        <v>4.728754340796425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.83611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>528835.8198549063</v>
+        <v>586765.6224044226</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>428.7814174833183</v>
+        <v>475.5872965041436</v>
       </c>
       <c r="AB4" t="n">
-        <v>586.6776519017567</v>
+        <v>650.7195205076969</v>
       </c>
       <c r="AC4" t="n">
-        <v>530.6859602115082</v>
+        <v>588.6157627610246</v>
       </c>
       <c r="AD4" t="n">
-        <v>428781.4174833182</v>
+        <v>475587.2965041436</v>
       </c>
       <c r="AE4" t="n">
-        <v>586677.6519017566</v>
+        <v>650719.5205076969</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.5701746812156e-06</v>
+        <v>4.735373453572242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>530685.9602115082</v>
+        <v>588615.7627610246</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>973.0693196796068</v>
+        <v>1040.980328511352</v>
       </c>
       <c r="AB2" t="n">
-        <v>1331.396371974261</v>
+        <v>1424.315210280115</v>
       </c>
       <c r="AC2" t="n">
-        <v>1204.329770859581</v>
+        <v>1288.380565649933</v>
       </c>
       <c r="AD2" t="n">
-        <v>973069.3196796068</v>
+        <v>1040980.328511352</v>
       </c>
       <c r="AE2" t="n">
-        <v>1331396.371974261</v>
+        <v>1424315.210280115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.711368564046739e-06</v>
+        <v>3.057235046934267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.75972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1204329.770859581</v>
+        <v>1288380.565649933</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.3324489762432</v>
+        <v>541.8159293261836</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.9992209808991</v>
+        <v>741.3364577358815</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.578242697838</v>
+        <v>670.5843466818214</v>
       </c>
       <c r="AD3" t="n">
-        <v>493332.4489762432</v>
+        <v>541815.9293261835</v>
       </c>
       <c r="AE3" t="n">
-        <v>674999.2209808991</v>
+        <v>741336.4577358814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.450472249814651e-06</v>
+        <v>4.377589843042488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.91111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>610578.242697838</v>
+        <v>670584.3466818214</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>449.7858119344252</v>
+        <v>488.7262097526062</v>
       </c>
       <c r="AB4" t="n">
-        <v>615.4167910382447</v>
+        <v>668.6967612621864</v>
       </c>
       <c r="AC4" t="n">
-        <v>556.6822762444449</v>
+        <v>604.8772808891216</v>
       </c>
       <c r="AD4" t="n">
-        <v>449785.8119344251</v>
+        <v>488726.2097526062</v>
       </c>
       <c r="AE4" t="n">
-        <v>615416.7910382447</v>
+        <v>668696.7612621865</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.560685328675172e-06</v>
+        <v>4.574477465265816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.527777777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>556682.2762444449</v>
+        <v>604877.2808891216</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>450.8614301090564</v>
+        <v>489.8018279272375</v>
       </c>
       <c r="AB5" t="n">
-        <v>616.8884992777</v>
+        <v>670.1684695016418</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.0135267150821</v>
+        <v>606.2085313597587</v>
       </c>
       <c r="AD5" t="n">
-        <v>450861.4301090564</v>
+        <v>489801.8279272376</v>
       </c>
       <c r="AE5" t="n">
-        <v>616888.4992777</v>
+        <v>670168.4695016418</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.564301449664889e-06</v>
+        <v>4.580937401515653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.515277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>558013.5267150821</v>
+        <v>606208.5313597587</v>
       </c>
     </row>
   </sheetData>
